--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Timp1-Cd63.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Timp1-Cd63.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.315901</v>
+        <v>11.62232766666667</v>
       </c>
       <c r="H2">
-        <v>6.947703000000001</v>
+        <v>34.866983</v>
       </c>
       <c r="I2">
-        <v>0.00878802612787807</v>
+        <v>0.03920872646898525</v>
       </c>
       <c r="J2">
-        <v>0.008788026127878068</v>
+        <v>0.03920872646898525</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.221999999999999</v>
+        <v>38.198408</v>
       </c>
       <c r="N2">
-        <v>21.666</v>
+        <v>114.595224</v>
       </c>
       <c r="O2">
-        <v>0.009636415263395938</v>
+        <v>0.05104410684611114</v>
       </c>
       <c r="P2">
-        <v>0.009636415263395938</v>
+        <v>0.05104410684611114</v>
       </c>
       <c r="Q2">
-        <v>16.725437022</v>
+        <v>443.9544141210213</v>
       </c>
       <c r="R2">
-        <v>150.528933198</v>
+        <v>3995.589727089192</v>
       </c>
       <c r="S2">
-        <v>8.468506911380654E-05</v>
+        <v>0.002001374423182829</v>
       </c>
       <c r="T2">
-        <v>8.468506911380652E-05</v>
+        <v>0.002001374423182829</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.315901</v>
+        <v>11.62232766666667</v>
       </c>
       <c r="H3">
-        <v>6.947703000000001</v>
+        <v>34.866983</v>
       </c>
       <c r="I3">
-        <v>0.00878802612787807</v>
+        <v>0.03920872646898525</v>
       </c>
       <c r="J3">
-        <v>0.008788026127878068</v>
+        <v>0.03920872646898525</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>574.141372</v>
       </c>
       <c r="O3">
-        <v>0.2553616117644183</v>
+        <v>0.2557395719837403</v>
       </c>
       <c r="P3">
-        <v>0.2553616117644183</v>
+        <v>0.2557395719837403</v>
       </c>
       <c r="Q3">
-        <v>443.218192518724</v>
+        <v>2224.286384124519</v>
       </c>
       <c r="R3">
-        <v>3988.963732668517</v>
+        <v>20018.57745712067</v>
       </c>
       <c r="S3">
-        <v>0.002244124516242764</v>
+        <v>0.01002722292520584</v>
       </c>
       <c r="T3">
-        <v>0.002244124516242764</v>
+        <v>0.01002722292520584</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.315901</v>
+        <v>11.62232766666667</v>
       </c>
       <c r="H4">
-        <v>6.947703000000001</v>
+        <v>34.866983</v>
       </c>
       <c r="I4">
-        <v>0.00878802612787807</v>
+        <v>0.03920872646898525</v>
       </c>
       <c r="J4">
-        <v>0.008788026127878068</v>
+        <v>0.03920872646898525</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>133.9193763333333</v>
+        <v>61.421814</v>
       </c>
       <c r="N4">
-        <v>401.758129</v>
+        <v>184.265442</v>
       </c>
       <c r="O4">
-        <v>0.1786904904684296</v>
+        <v>0.08207728543288938</v>
       </c>
       <c r="P4">
-        <v>0.1786904904684296</v>
+        <v>0.08207728543288938</v>
       </c>
       <c r="Q4">
-        <v>310.144017569743</v>
+        <v>713.864448189054</v>
       </c>
       <c r="R4">
-        <v>2791.296158127687</v>
+        <v>6424.780033701486</v>
       </c>
       <c r="S4">
-        <v>0.001570336699039906</v>
+        <v>0.003218145833854987</v>
       </c>
       <c r="T4">
-        <v>0.001570336699039906</v>
+        <v>0.003218145833854987</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.315901</v>
+        <v>11.62232766666667</v>
       </c>
       <c r="H5">
-        <v>6.947703000000001</v>
+        <v>34.866983</v>
       </c>
       <c r="I5">
-        <v>0.00878802612787807</v>
+        <v>0.03920872646898525</v>
       </c>
       <c r="J5">
-        <v>0.008788026127878068</v>
+        <v>0.03920872646898525</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>125.4360933333333</v>
+        <v>116.4573846666667</v>
       </c>
       <c r="N5">
-        <v>376.30828</v>
+        <v>349.372154</v>
       </c>
       <c r="O5">
-        <v>0.1673711277178193</v>
+        <v>0.1556207050813216</v>
       </c>
       <c r="P5">
-        <v>0.1673711277178193</v>
+        <v>0.1556207050813217</v>
       </c>
       <c r="Q5">
-        <v>290.49757398676</v>
+        <v>1353.505883799042</v>
       </c>
       <c r="R5">
-        <v>2614.47816588084</v>
+        <v>12181.55295419138</v>
       </c>
       <c r="S5">
-        <v>0.001470861843436613</v>
+        <v>0.006101689658444162</v>
       </c>
       <c r="T5">
-        <v>0.001470861843436613</v>
+        <v>0.006101689658444163</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2.315901</v>
+        <v>11.62232766666667</v>
       </c>
       <c r="H6">
-        <v>6.947703000000001</v>
+        <v>34.866983</v>
       </c>
       <c r="I6">
-        <v>0.00878802612787807</v>
+        <v>0.03920872646898525</v>
       </c>
       <c r="J6">
-        <v>0.008788026127878068</v>
+        <v>0.03920872646898525</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>147.2274146666667</v>
+        <v>126.0955403333333</v>
       </c>
       <c r="N6">
-        <v>441.682244</v>
+        <v>378.286621</v>
       </c>
       <c r="O6">
-        <v>0.1964475915098574</v>
+        <v>0.1685000650705857</v>
       </c>
       <c r="P6">
-        <v>0.1964475915098574</v>
+        <v>0.1685000650705857</v>
       </c>
       <c r="Q6">
-        <v>340.964116853948</v>
+        <v>1465.523687059382</v>
       </c>
       <c r="R6">
-        <v>3068.677051685533</v>
+        <v>13189.71318353444</v>
       </c>
       <c r="S6">
-        <v>0.001726386566947345</v>
+        <v>0.006606672961358811</v>
       </c>
       <c r="T6">
-        <v>0.001726386566947344</v>
+        <v>0.006606672961358811</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>2.315901</v>
+        <v>11.62232766666667</v>
       </c>
       <c r="H7">
-        <v>6.947703000000001</v>
+        <v>34.866983</v>
       </c>
       <c r="I7">
-        <v>0.00878802612787807</v>
+        <v>0.03920872646898525</v>
       </c>
       <c r="J7">
-        <v>0.008788026127878068</v>
+        <v>0.03920872646898525</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>144.2634733333333</v>
+        <v>214.7875923333334</v>
       </c>
       <c r="N7">
-        <v>432.79042</v>
+        <v>644.3627770000001</v>
       </c>
       <c r="O7">
-        <v>0.1924927632760796</v>
+        <v>0.2870182655853519</v>
       </c>
       <c r="P7">
-        <v>0.1924927632760795</v>
+        <v>0.2870182655853519</v>
       </c>
       <c r="Q7">
-        <v>334.0999221561401</v>
+        <v>2496.331776832421</v>
       </c>
       <c r="R7">
-        <v>3006.89929940526</v>
+        <v>22466.98599149179</v>
       </c>
       <c r="S7">
-        <v>0.001691631433097636</v>
+        <v>0.01125362066693862</v>
       </c>
       <c r="T7">
-        <v>0.001691631433097635</v>
+        <v>0.01125362066693862</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>706.00441</v>
       </c>
       <c r="I8">
-        <v>0.8930124389999315</v>
+        <v>0.7939182405769755</v>
       </c>
       <c r="J8">
-        <v>0.8930124389999313</v>
+        <v>0.7939182405769755</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.221999999999999</v>
+        <v>38.198408</v>
       </c>
       <c r="N8">
-        <v>21.666</v>
+        <v>114.595224</v>
       </c>
       <c r="O8">
-        <v>0.009636415263395938</v>
+        <v>0.05104410684611114</v>
       </c>
       <c r="P8">
-        <v>0.009636415263395938</v>
+        <v>0.05104410684611114</v>
       </c>
       <c r="Q8">
-        <v>1699.587949673333</v>
+        <v>8989.414834326426</v>
       </c>
       <c r="R8">
-        <v>15296.29154706</v>
+        <v>80904.73350893785</v>
       </c>
       <c r="S8">
-        <v>0.008605438697581375</v>
+        <v>0.0405248474990877</v>
       </c>
       <c r="T8">
-        <v>0.008605438697581371</v>
+        <v>0.0405248474990877</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>706.00441</v>
       </c>
       <c r="I9">
-        <v>0.8930124389999315</v>
+        <v>0.7939182405769755</v>
       </c>
       <c r="J9">
-        <v>0.8930124389999313</v>
+        <v>0.7939182405769755</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>574.141372</v>
       </c>
       <c r="O9">
-        <v>0.2553616117644183</v>
+        <v>0.2557395719837403</v>
       </c>
       <c r="P9">
-        <v>0.2553616117644183</v>
+        <v>0.2557395719837403</v>
       </c>
       <c r="Q9">
         <v>45038.48228838339</v>
@@ -1013,10 +1013,10 @@
         <v>405346.3405954505</v>
       </c>
       <c r="S9">
-        <v>0.2280410957486968</v>
+        <v>0.2030363110352399</v>
       </c>
       <c r="T9">
-        <v>0.2280410957486967</v>
+        <v>0.2030363110352399</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>706.00441</v>
       </c>
       <c r="I10">
-        <v>0.8930124389999315</v>
+        <v>0.7939182405769755</v>
       </c>
       <c r="J10">
-        <v>0.8930124389999313</v>
+        <v>0.7939182405769755</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>133.9193763333333</v>
+        <v>61.421814</v>
       </c>
       <c r="N10">
-        <v>401.758129</v>
+        <v>184.265442</v>
       </c>
       <c r="O10">
-        <v>0.1786904904684296</v>
+        <v>0.08207728543288938</v>
       </c>
       <c r="P10">
-        <v>0.1786904904684296</v>
+        <v>0.08207728543288938</v>
       </c>
       <c r="Q10">
-        <v>31515.89009192765</v>
+        <v>14454.69051806658</v>
       </c>
       <c r="R10">
-        <v>283643.0108273489</v>
+        <v>130092.2146625992</v>
       </c>
       <c r="S10">
-        <v>0.1595728307193063</v>
+        <v>0.06516265404221375</v>
       </c>
       <c r="T10">
-        <v>0.1595728307193063</v>
+        <v>0.06516265404221375</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>706.00441</v>
       </c>
       <c r="I11">
-        <v>0.8930124389999315</v>
+        <v>0.7939182405769755</v>
       </c>
       <c r="J11">
-        <v>0.8930124389999313</v>
+        <v>0.7939182405769755</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>125.4360933333333</v>
+        <v>116.4573846666667</v>
       </c>
       <c r="N11">
-        <v>376.30828</v>
+        <v>349.372154</v>
       </c>
       <c r="O11">
-        <v>0.1673711277178193</v>
+        <v>0.1556207050813216</v>
       </c>
       <c r="P11">
-        <v>0.1673711277178193</v>
+        <v>0.1556207050813217</v>
       </c>
       <c r="Q11">
-        <v>29519.47835550164</v>
+        <v>27406.47571724435</v>
       </c>
       <c r="R11">
-        <v>265675.3051995148</v>
+        <v>246658.2814551991</v>
       </c>
       <c r="S11">
-        <v>0.1494644989814588</v>
+        <v>0.1235501163755113</v>
       </c>
       <c r="T11">
-        <v>0.1494644989814588</v>
+        <v>0.1235501163755113</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>706.00441</v>
       </c>
       <c r="I12">
-        <v>0.8930124389999315</v>
+        <v>0.7939182405769755</v>
       </c>
       <c r="J12">
-        <v>0.8930124389999313</v>
+        <v>0.7939182405769755</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>147.2274146666667</v>
+        <v>126.0955403333333</v>
       </c>
       <c r="N12">
-        <v>441.682244</v>
+        <v>378.286621</v>
       </c>
       <c r="O12">
-        <v>0.1964475915098574</v>
+        <v>0.1685000650705857</v>
       </c>
       <c r="P12">
-        <v>0.1964475915098574</v>
+        <v>0.1685000650705857</v>
       </c>
       <c r="Q12">
-        <v>34647.73467585511</v>
+        <v>29674.6691855554</v>
       </c>
       <c r="R12">
-        <v>311829.6120826961</v>
+        <v>267072.0226699986</v>
       </c>
       <c r="S12">
-        <v>0.17543014282988</v>
+        <v>0.1337752751979453</v>
       </c>
       <c r="T12">
-        <v>0.17543014282988</v>
+        <v>0.1337752751979453</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>706.00441</v>
       </c>
       <c r="I13">
-        <v>0.8930124389999315</v>
+        <v>0.7939182405769755</v>
       </c>
       <c r="J13">
-        <v>0.8930124389999313</v>
+        <v>0.7939182405769755</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>144.2634733333333</v>
+        <v>214.7875923333334</v>
       </c>
       <c r="N13">
-        <v>432.79042</v>
+        <v>644.3627770000001</v>
       </c>
       <c r="O13">
-        <v>0.1924927632760796</v>
+        <v>0.2870182655853519</v>
       </c>
       <c r="P13">
-        <v>0.1924927632760795</v>
+        <v>0.2870182655853519</v>
       </c>
       <c r="Q13">
-        <v>33950.21612508358</v>
+        <v>50546.99580020518</v>
       </c>
       <c r="R13">
-        <v>305551.9451257522</v>
+        <v>454922.9622018466</v>
       </c>
       <c r="S13">
-        <v>0.1718984320230083</v>
+        <v>0.2278690364269776</v>
       </c>
       <c r="T13">
-        <v>0.1718984320230082</v>
+        <v>0.2278690364269776</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.209790666666667</v>
+        <v>11.106554</v>
       </c>
       <c r="H14">
-        <v>12.629372</v>
+        <v>33.319662</v>
       </c>
       <c r="I14">
-        <v>0.01597466833494347</v>
+        <v>0.0374687283209173</v>
       </c>
       <c r="J14">
-        <v>0.01597466833494346</v>
+        <v>0.0374687283209173</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.221999999999999</v>
+        <v>38.198408</v>
       </c>
       <c r="N14">
-        <v>21.666</v>
+        <v>114.595224</v>
       </c>
       <c r="O14">
-        <v>0.009636415263395938</v>
+        <v>0.05104410684611114</v>
       </c>
       <c r="P14">
-        <v>0.009636415263395938</v>
+        <v>0.05104410684611114</v>
       </c>
       <c r="Q14">
-        <v>30.40310819466666</v>
+        <v>424.2526811660321</v>
       </c>
       <c r="R14">
-        <v>273.6279737519999</v>
+        <v>3818.274130494288</v>
       </c>
       <c r="S14">
-        <v>0.000153938537770537</v>
+        <v>0.001912557771800813</v>
       </c>
       <c r="T14">
-        <v>0.0001539385377705369</v>
+        <v>0.001912557771800813</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.209790666666667</v>
+        <v>11.106554</v>
       </c>
       <c r="H15">
-        <v>12.629372</v>
+        <v>33.319662</v>
       </c>
       <c r="I15">
-        <v>0.01597466833494347</v>
+        <v>0.0374687283209173</v>
       </c>
       <c r="J15">
-        <v>0.01597466833494346</v>
+        <v>0.0374687283209173</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>574.141372</v>
       </c>
       <c r="O15">
-        <v>0.2553616117644183</v>
+        <v>0.2557395719837403</v>
       </c>
       <c r="P15">
-        <v>0.2553616117644183</v>
+        <v>0.2557395719837403</v>
       </c>
       <c r="Q15">
-        <v>805.6716630642649</v>
+        <v>2125.577383917363</v>
       </c>
       <c r="R15">
-        <v>7251.044967578385</v>
+        <v>19130.19645525627</v>
       </c>
       <c r="S15">
-        <v>0.00407931705341318</v>
+        <v>0.009582236543566439</v>
       </c>
       <c r="T15">
-        <v>0.004079317053413178</v>
+        <v>0.009582236543566439</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.209790666666667</v>
+        <v>11.106554</v>
       </c>
       <c r="H16">
-        <v>12.629372</v>
+        <v>33.319662</v>
       </c>
       <c r="I16">
-        <v>0.01597466833494347</v>
+        <v>0.0374687283209173</v>
       </c>
       <c r="J16">
-        <v>0.01597466833494346</v>
+        <v>0.0374687283209173</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>133.9193763333333</v>
+        <v>61.421814</v>
       </c>
       <c r="N16">
-        <v>401.758129</v>
+        <v>184.265442</v>
       </c>
       <c r="O16">
-        <v>0.1786904904684296</v>
+        <v>0.08207728543288938</v>
       </c>
       <c r="P16">
-        <v>0.1786904904684296</v>
+        <v>0.08207728543288938</v>
       </c>
       <c r="Q16">
-        <v>563.7725405738876</v>
+        <v>682.1846939689561</v>
       </c>
       <c r="R16">
-        <v>5073.952865164988</v>
+        <v>6139.662245720604</v>
       </c>
       <c r="S16">
-        <v>0.002854521319841539</v>
+        <v>0.003075331509203315</v>
       </c>
       <c r="T16">
-        <v>0.002854521319841537</v>
+        <v>0.003075331509203315</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.209790666666667</v>
+        <v>11.106554</v>
       </c>
       <c r="H17">
-        <v>12.629372</v>
+        <v>33.319662</v>
       </c>
       <c r="I17">
-        <v>0.01597466833494347</v>
+        <v>0.0374687283209173</v>
       </c>
       <c r="J17">
-        <v>0.01597466833494346</v>
+        <v>0.0374687283209173</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>125.4360933333333</v>
+        <v>116.4573846666667</v>
       </c>
       <c r="N17">
-        <v>376.30828</v>
+        <v>349.372154</v>
       </c>
       <c r="O17">
-        <v>0.1673711277178193</v>
+        <v>0.1556207050813216</v>
       </c>
       <c r="P17">
-        <v>0.1673711277178193</v>
+        <v>0.1556207050813217</v>
       </c>
       <c r="Q17">
-        <v>528.0596949777955</v>
+        <v>1293.440231499105</v>
       </c>
       <c r="R17">
-        <v>4752.53725480016</v>
+        <v>11640.96208349195</v>
       </c>
       <c r="S17">
-        <v>0.002673698254137626</v>
+        <v>0.005830909919801635</v>
       </c>
       <c r="T17">
-        <v>0.002673698254137625</v>
+        <v>0.005830909919801636</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.209790666666667</v>
+        <v>11.106554</v>
       </c>
       <c r="H18">
-        <v>12.629372</v>
+        <v>33.319662</v>
       </c>
       <c r="I18">
-        <v>0.01597466833494347</v>
+        <v>0.0374687283209173</v>
       </c>
       <c r="J18">
-        <v>0.01597466833494346</v>
+        <v>0.0374687283209173</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>147.2274146666667</v>
+        <v>126.0955403333333</v>
       </c>
       <c r="N18">
-        <v>441.682244</v>
+        <v>378.286621</v>
       </c>
       <c r="O18">
-        <v>0.1964475915098574</v>
+        <v>0.1685000650705857</v>
       </c>
       <c r="P18">
-        <v>0.1964475915098574</v>
+        <v>0.1685000650705857</v>
       </c>
       <c r="Q18">
-        <v>619.7965961411965</v>
+        <v>1400.486927871345</v>
       </c>
       <c r="R18">
-        <v>5578.169365270768</v>
+        <v>12604.3823508421</v>
       </c>
       <c r="S18">
-        <v>0.003138185119568428</v>
+        <v>0.006313483160186663</v>
       </c>
       <c r="T18">
-        <v>0.003138185119568426</v>
+        <v>0.006313483160186663</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.209790666666667</v>
+        <v>11.106554</v>
       </c>
       <c r="H19">
-        <v>12.629372</v>
+        <v>33.319662</v>
       </c>
       <c r="I19">
-        <v>0.01597466833494347</v>
+        <v>0.0374687283209173</v>
       </c>
       <c r="J19">
-        <v>0.01597466833494346</v>
+        <v>0.0374687283209173</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>144.2634733333333</v>
+        <v>214.7875923333334</v>
       </c>
       <c r="N19">
-        <v>432.79042</v>
+        <v>644.3627770000001</v>
       </c>
       <c r="O19">
-        <v>0.1924927632760796</v>
+        <v>0.2870182655853519</v>
       </c>
       <c r="P19">
-        <v>0.1924927632760795</v>
+        <v>0.2870182655853519</v>
       </c>
       <c r="Q19">
-        <v>607.3190235795822</v>
+        <v>2385.549992780153</v>
       </c>
       <c r="R19">
-        <v>5465.87121221624</v>
+        <v>21469.94993502138</v>
       </c>
       <c r="S19">
-        <v>0.003075008050212157</v>
+        <v>0.01075420941635844</v>
       </c>
       <c r="T19">
-        <v>0.003075008050212155</v>
+        <v>0.01075420941635844</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.96099766666667</v>
+        <v>25.53004866666667</v>
       </c>
       <c r="H20">
-        <v>53.882993</v>
+        <v>76.590146</v>
       </c>
       <c r="I20">
-        <v>0.06815564084018433</v>
+        <v>0.08612738546187507</v>
       </c>
       <c r="J20">
-        <v>0.0681556408401843</v>
+        <v>0.08612738546187507</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.221999999999999</v>
+        <v>38.198408</v>
       </c>
       <c r="N20">
-        <v>21.666</v>
+        <v>114.595224</v>
       </c>
       <c r="O20">
-        <v>0.009636415263395938</v>
+        <v>0.05104410684611114</v>
       </c>
       <c r="P20">
-        <v>0.009636415263395938</v>
+        <v>0.05104410684611114</v>
       </c>
       <c r="Q20">
-        <v>129.7143251486667</v>
+        <v>975.2072152291895</v>
       </c>
       <c r="R20">
-        <v>1167.428926338</v>
+        <v>8776.864937062704</v>
       </c>
       <c r="S20">
-        <v>0.0006567760576788838</v>
+        <v>0.00439629546589215</v>
       </c>
       <c r="T20">
-        <v>0.0006567760576788836</v>
+        <v>0.00439629546589215</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.96099766666667</v>
+        <v>25.53004866666667</v>
       </c>
       <c r="H21">
-        <v>53.882993</v>
+        <v>76.590146</v>
       </c>
       <c r="I21">
-        <v>0.06815564084018433</v>
+        <v>0.08612738546187507</v>
       </c>
       <c r="J21">
-        <v>0.0681556408401843</v>
+        <v>0.08612738546187507</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>574.141372</v>
       </c>
       <c r="O21">
-        <v>0.2553616117644183</v>
+        <v>0.2557395719837403</v>
       </c>
       <c r="P21">
-        <v>0.2553616117644183</v>
+        <v>0.2557395719837403</v>
       </c>
       <c r="Q21">
-        <v>3437.3839476096</v>
+        <v>4885.952389568924</v>
       </c>
       <c r="R21">
-        <v>30936.4555284864</v>
+        <v>43973.57150612032</v>
       </c>
       <c r="S21">
-        <v>0.01740433429578628</v>
+        <v>0.02202618069409855</v>
       </c>
       <c r="T21">
-        <v>0.01740433429578627</v>
+        <v>0.02202618069409855</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>17.96099766666667</v>
+        <v>25.53004866666667</v>
       </c>
       <c r="H22">
-        <v>53.882993</v>
+        <v>76.590146</v>
       </c>
       <c r="I22">
-        <v>0.06815564084018433</v>
+        <v>0.08612738546187507</v>
       </c>
       <c r="J22">
-        <v>0.0681556408401843</v>
+        <v>0.08612738546187507</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>133.9193763333333</v>
+        <v>61.421814</v>
       </c>
       <c r="N22">
-        <v>401.758129</v>
+        <v>184.265442</v>
       </c>
       <c r="O22">
-        <v>0.1786904904684296</v>
+        <v>0.08207728543288938</v>
       </c>
       <c r="P22">
-        <v>0.1786904904684296</v>
+        <v>0.08207728543288938</v>
       </c>
       <c r="Q22">
-        <v>2405.325605844455</v>
+        <v>1568.101900614948</v>
       </c>
       <c r="R22">
-        <v>21647.9304526001</v>
+        <v>14112.91710553453</v>
       </c>
       <c r="S22">
-        <v>0.01217876488992267</v>
+        <v>0.007069102000142807</v>
       </c>
       <c r="T22">
-        <v>0.01217876488992266</v>
+        <v>0.007069102000142807</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>17.96099766666667</v>
+        <v>25.53004866666667</v>
       </c>
       <c r="H23">
-        <v>53.882993</v>
+        <v>76.590146</v>
       </c>
       <c r="I23">
-        <v>0.06815564084018433</v>
+        <v>0.08612738546187507</v>
       </c>
       <c r="J23">
-        <v>0.0681556408401843</v>
+        <v>0.08612738546187507</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>125.4360933333333</v>
+        <v>116.4573846666667</v>
       </c>
       <c r="N23">
-        <v>376.30828</v>
+        <v>349.372154</v>
       </c>
       <c r="O23">
-        <v>0.1673711277178193</v>
+        <v>0.1556207050813216</v>
       </c>
       <c r="P23">
-        <v>0.1673711277178193</v>
+        <v>0.1556207050813217</v>
       </c>
       <c r="Q23">
-        <v>2252.957379675782</v>
+        <v>2973.16269813272</v>
       </c>
       <c r="R23">
-        <v>20276.61641708204</v>
+        <v>26758.46428319448</v>
       </c>
       <c r="S23">
-        <v>0.01140728646775231</v>
+        <v>0.01340320445238777</v>
       </c>
       <c r="T23">
-        <v>0.01140728646775231</v>
+        <v>0.01340320445238777</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>17.96099766666667</v>
+        <v>25.53004866666667</v>
       </c>
       <c r="H24">
-        <v>53.882993</v>
+        <v>76.590146</v>
       </c>
       <c r="I24">
-        <v>0.06815564084018433</v>
+        <v>0.08612738546187507</v>
       </c>
       <c r="J24">
-        <v>0.0681556408401843</v>
+        <v>0.08612738546187507</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>147.2274146666667</v>
+        <v>126.0955403333333</v>
       </c>
       <c r="N24">
-        <v>441.682244</v>
+        <v>378.286621</v>
       </c>
       <c r="O24">
-        <v>0.1964475915098574</v>
+        <v>0.1685000650705857</v>
       </c>
       <c r="P24">
-        <v>0.1964475915098574</v>
+        <v>0.1685000650705857</v>
       </c>
       <c r="Q24">
-        <v>2644.351251297366</v>
+        <v>3219.22528135963</v>
       </c>
       <c r="R24">
-        <v>23799.16126167629</v>
+        <v>28973.02753223667</v>
       </c>
       <c r="S24">
-        <v>0.01338901149086508</v>
+        <v>0.01451247005468537</v>
       </c>
       <c r="T24">
-        <v>0.01338901149086508</v>
+        <v>0.01451247005468537</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>17.96099766666667</v>
+        <v>25.53004866666667</v>
       </c>
       <c r="H25">
-        <v>53.882993</v>
+        <v>76.590146</v>
       </c>
       <c r="I25">
-        <v>0.06815564084018433</v>
+        <v>0.08612738546187507</v>
       </c>
       <c r="J25">
-        <v>0.0681556408401843</v>
+        <v>0.08612738546187507</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>144.2634733333333</v>
+        <v>214.7875923333334</v>
       </c>
       <c r="N25">
-        <v>432.79042</v>
+        <v>644.3627770000001</v>
       </c>
       <c r="O25">
-        <v>0.1924927632760796</v>
+        <v>0.2870182655853519</v>
       </c>
       <c r="P25">
-        <v>0.1924927632760795</v>
+        <v>0.2870182655853519</v>
       </c>
       <c r="Q25">
-        <v>2591.115907925229</v>
+        <v>5483.537685266161</v>
       </c>
       <c r="R25">
-        <v>23320.04317132706</v>
+        <v>49351.83916739545</v>
       </c>
       <c r="S25">
-        <v>0.0131194676381791</v>
+        <v>0.02472013279466843</v>
       </c>
       <c r="T25">
-        <v>0.0131194676381791</v>
+        <v>0.02472013279466843</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.296826</v>
+        <v>2.504284</v>
       </c>
       <c r="H26">
-        <v>9.890478</v>
+        <v>7.512852</v>
       </c>
       <c r="I26">
-        <v>0.01251028995931508</v>
+        <v>0.008448375331756372</v>
       </c>
       <c r="J26">
-        <v>0.01251028995931507</v>
+        <v>0.008448375331756372</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.221999999999999</v>
+        <v>38.198408</v>
       </c>
       <c r="N26">
-        <v>21.666</v>
+        <v>114.595224</v>
       </c>
       <c r="O26">
-        <v>0.009636415263395938</v>
+        <v>0.05104410684611114</v>
       </c>
       <c r="P26">
-        <v>0.009636415263395938</v>
+        <v>0.05104410684611114</v>
       </c>
       <c r="Q26">
-        <v>23.809677372</v>
+        <v>95.65966197987198</v>
       </c>
       <c r="R26">
-        <v>214.287096348</v>
+        <v>860.936957818848</v>
       </c>
       <c r="S26">
-        <v>0.0001205543491134527</v>
+        <v>0.0004312397731102219</v>
       </c>
       <c r="T26">
-        <v>0.0001205543491134527</v>
+        <v>0.0004312397731102219</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3.296826</v>
+        <v>2.504284</v>
       </c>
       <c r="H27">
-        <v>9.890478</v>
+        <v>7.512852</v>
       </c>
       <c r="I27">
-        <v>0.01251028995931508</v>
+        <v>0.008448375331756372</v>
       </c>
       <c r="J27">
-        <v>0.01251028995931507</v>
+        <v>0.008448375331756372</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>574.141372</v>
       </c>
       <c r="O27">
-        <v>0.2553616117644183</v>
+        <v>0.2557395719837403</v>
       </c>
       <c r="P27">
-        <v>0.2553616117644183</v>
+        <v>0.2557395719837403</v>
       </c>
       <c r="Q27">
-        <v>630.9480676284239</v>
+        <v>479.2710172125493</v>
       </c>
       <c r="R27">
-        <v>5678.532608655816</v>
+        <v>4313.439154912944</v>
       </c>
       <c r="S27">
-        <v>0.003194647807650917</v>
+        <v>0.002160583891301365</v>
       </c>
       <c r="T27">
-        <v>0.003194647807650916</v>
+        <v>0.002160583891301365</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3.296826</v>
+        <v>2.504284</v>
       </c>
       <c r="H28">
-        <v>9.890478</v>
+        <v>7.512852</v>
       </c>
       <c r="I28">
-        <v>0.01251028995931508</v>
+        <v>0.008448375331756372</v>
       </c>
       <c r="J28">
-        <v>0.01251028995931507</v>
+        <v>0.008448375331756372</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>133.9193763333333</v>
+        <v>61.421814</v>
       </c>
       <c r="N28">
-        <v>401.758129</v>
+        <v>184.265442</v>
       </c>
       <c r="O28">
-        <v>0.1786904904684296</v>
+        <v>0.08207728543288938</v>
       </c>
       <c r="P28">
-        <v>0.1786904904684296</v>
+        <v>0.08207728543288938</v>
       </c>
       <c r="Q28">
-        <v>441.508881799518</v>
+        <v>153.817666051176</v>
       </c>
       <c r="R28">
-        <v>3973.579936195662</v>
+        <v>1384.358994460584</v>
       </c>
       <c r="S28">
-        <v>0.002235469848732281</v>
+        <v>0.0006934197135487492</v>
       </c>
       <c r="T28">
-        <v>0.00223546984873228</v>
+        <v>0.0006934197135487492</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>3.296826</v>
+        <v>2.504284</v>
       </c>
       <c r="H29">
-        <v>9.890478</v>
+        <v>7.512852</v>
       </c>
       <c r="I29">
-        <v>0.01251028995931508</v>
+        <v>0.008448375331756372</v>
       </c>
       <c r="J29">
-        <v>0.01251028995931507</v>
+        <v>0.008448375331756372</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>125.4360933333333</v>
+        <v>116.4573846666667</v>
       </c>
       <c r="N29">
-        <v>376.30828</v>
+        <v>349.372154</v>
       </c>
       <c r="O29">
-        <v>0.1673711277178193</v>
+        <v>0.1556207050813216</v>
       </c>
       <c r="P29">
-        <v>0.1673711277178193</v>
+        <v>0.1556207050813217</v>
       </c>
       <c r="Q29">
-        <v>413.5409738397599</v>
+        <v>291.6423651025786</v>
       </c>
       <c r="R29">
-        <v>3721.86876455784</v>
+        <v>2624.781285923208</v>
       </c>
       <c r="S29">
-        <v>0.002093861338567476</v>
+        <v>0.001314742125919571</v>
       </c>
       <c r="T29">
-        <v>0.002093861338567475</v>
+        <v>0.001314742125919571</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>3.296826</v>
+        <v>2.504284</v>
       </c>
       <c r="H30">
-        <v>9.890478</v>
+        <v>7.512852</v>
       </c>
       <c r="I30">
-        <v>0.01251028995931508</v>
+        <v>0.008448375331756372</v>
       </c>
       <c r="J30">
-        <v>0.01251028995931507</v>
+        <v>0.008448375331756372</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>147.2274146666667</v>
+        <v>126.0955403333333</v>
       </c>
       <c r="N30">
-        <v>441.682244</v>
+        <v>378.286621</v>
       </c>
       <c r="O30">
-        <v>0.1964475915098574</v>
+        <v>0.1685000650705857</v>
       </c>
       <c r="P30">
-        <v>0.1964475915098574</v>
+        <v>0.1685000650705857</v>
       </c>
       <c r="Q30">
-        <v>485.383168585848</v>
+        <v>315.7790441281213</v>
       </c>
       <c r="R30">
-        <v>4368.448517272632</v>
+        <v>2842.011397153092</v>
       </c>
       <c r="S30">
-        <v>0.002457616331597399</v>
+        <v>0.00142355179314168</v>
       </c>
       <c r="T30">
-        <v>0.002457616331597398</v>
+        <v>0.00142355179314168</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3.296826</v>
+        <v>2.504284</v>
       </c>
       <c r="H31">
-        <v>9.890478</v>
+        <v>7.512852</v>
       </c>
       <c r="I31">
-        <v>0.01251028995931508</v>
+        <v>0.008448375331756372</v>
       </c>
       <c r="J31">
-        <v>0.01251028995931507</v>
+        <v>0.008448375331756372</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>144.2634733333333</v>
+        <v>214.7875923333334</v>
       </c>
       <c r="N31">
-        <v>432.79042</v>
+        <v>644.3627770000001</v>
       </c>
       <c r="O31">
-        <v>0.1924927632760796</v>
+        <v>0.2870182655853519</v>
       </c>
       <c r="P31">
-        <v>0.1924927632760795</v>
+        <v>0.2870182655853519</v>
       </c>
       <c r="Q31">
-        <v>475.61156973564</v>
+        <v>537.8891308788893</v>
       </c>
       <c r="R31">
-        <v>4280.504127620759</v>
+        <v>4841.002177910004</v>
       </c>
       <c r="S31">
-        <v>0.002408140283653552</v>
+        <v>0.002424838034734786</v>
       </c>
       <c r="T31">
-        <v>0.002408140283653551</v>
+        <v>0.002424838034734786</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.410825</v>
+        <v>10.32394533333333</v>
       </c>
       <c r="H32">
-        <v>1.232475</v>
+        <v>30.971836</v>
       </c>
       <c r="I32">
-        <v>0.001558935737747645</v>
+        <v>0.03482854383949051</v>
       </c>
       <c r="J32">
-        <v>0.001558935737747644</v>
+        <v>0.0348285438394905</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>7.221999999999999</v>
+        <v>38.198408</v>
       </c>
       <c r="N32">
-        <v>21.666</v>
+        <v>114.595224</v>
       </c>
       <c r="O32">
-        <v>0.009636415263395938</v>
+        <v>0.05104410684611114</v>
       </c>
       <c r="P32">
-        <v>0.009636415263395938</v>
+        <v>0.05104410684611114</v>
       </c>
       <c r="Q32">
-        <v>2.966978149999999</v>
+        <v>394.3582760123626</v>
       </c>
       <c r="R32">
-        <v>26.70280335</v>
+        <v>3549.224484111264</v>
       </c>
       <c r="S32">
-        <v>1.502255213788481E-05</v>
+        <v>0.001777791913037419</v>
       </c>
       <c r="T32">
-        <v>1.50225521378848E-05</v>
+        <v>0.001777791913037419</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.410825</v>
+        <v>10.32394533333333</v>
       </c>
       <c r="H33">
-        <v>1.232475</v>
+        <v>30.971836</v>
       </c>
       <c r="I33">
-        <v>0.001558935737747645</v>
+        <v>0.03482854383949051</v>
       </c>
       <c r="J33">
-        <v>0.001558935737747644</v>
+        <v>0.0348285438394905</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>574.141372</v>
       </c>
       <c r="O33">
-        <v>0.2553616117644183</v>
+        <v>0.2557395719837403</v>
       </c>
       <c r="P33">
-        <v>0.2553616117644183</v>
+        <v>0.2557395719837403</v>
       </c>
       <c r="Q33">
-        <v>78.62387638396667</v>
+        <v>1975.801379377666</v>
       </c>
       <c r="R33">
-        <v>707.6148874557</v>
+        <v>17782.21241439899</v>
       </c>
       <c r="S33">
-        <v>0.0003980923426283911</v>
+        <v>0.008907036894328238</v>
       </c>
       <c r="T33">
-        <v>0.0003980923426283909</v>
+        <v>0.008907036894328237</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.410825</v>
+        <v>10.32394533333333</v>
       </c>
       <c r="H34">
-        <v>1.232475</v>
+        <v>30.971836</v>
       </c>
       <c r="I34">
-        <v>0.001558935737747645</v>
+        <v>0.03482854383949051</v>
       </c>
       <c r="J34">
-        <v>0.001558935737747644</v>
+        <v>0.0348285438394905</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>133.9193763333333</v>
+        <v>61.421814</v>
       </c>
       <c r="N34">
-        <v>401.758129</v>
+        <v>184.265442</v>
       </c>
       <c r="O34">
-        <v>0.1786904904684296</v>
+        <v>0.08207728543288938</v>
       </c>
       <c r="P34">
-        <v>0.1786904904684296</v>
+        <v>0.08207728543288938</v>
       </c>
       <c r="Q34">
-        <v>55.01742778214167</v>
+        <v>634.115450010168</v>
       </c>
       <c r="R34">
-        <v>495.156850039275</v>
+        <v>5707.039050091512</v>
       </c>
       <c r="S34">
-        <v>0.0002785669915868897</v>
+        <v>0.002858632333925763</v>
       </c>
       <c r="T34">
-        <v>0.0002785669915868896</v>
+        <v>0.002858632333925763</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.410825</v>
+        <v>10.32394533333333</v>
       </c>
       <c r="H35">
-        <v>1.232475</v>
+        <v>30.971836</v>
       </c>
       <c r="I35">
-        <v>0.001558935737747645</v>
+        <v>0.03482854383949051</v>
       </c>
       <c r="J35">
-        <v>0.001558935737747644</v>
+        <v>0.0348285438394905</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>125.4360933333333</v>
+        <v>116.4573846666667</v>
       </c>
       <c r="N35">
-        <v>376.30828</v>
+        <v>349.372154</v>
       </c>
       <c r="O35">
-        <v>0.1673711277178193</v>
+        <v>0.1556207050813216</v>
       </c>
       <c r="P35">
-        <v>0.1673711277178193</v>
+        <v>0.1556207050813217</v>
       </c>
       <c r="Q35">
-        <v>51.53228304366666</v>
+        <v>1202.299672961638</v>
       </c>
       <c r="R35">
-        <v>463.7905473929999</v>
+        <v>10820.69705665474</v>
       </c>
       <c r="S35">
-        <v>0.0002609208324664339</v>
+        <v>0.005420042549257234</v>
       </c>
       <c r="T35">
-        <v>0.0002609208324664338</v>
+        <v>0.005420042549257234</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.410825</v>
+        <v>10.32394533333333</v>
       </c>
       <c r="H36">
-        <v>1.232475</v>
+        <v>30.971836</v>
       </c>
       <c r="I36">
-        <v>0.001558935737747645</v>
+        <v>0.03482854383949051</v>
       </c>
       <c r="J36">
-        <v>0.001558935737747644</v>
+        <v>0.0348285438394905</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>147.2274146666667</v>
+        <v>126.0955403333333</v>
       </c>
       <c r="N36">
-        <v>441.682244</v>
+        <v>378.286621</v>
       </c>
       <c r="O36">
-        <v>0.1964475915098574</v>
+        <v>0.1685000650705857</v>
       </c>
       <c r="P36">
-        <v>0.1964475915098574</v>
+        <v>0.1685000650705857</v>
       </c>
       <c r="Q36">
-        <v>60.48470263043334</v>
+        <v>1301.803465178461</v>
       </c>
       <c r="R36">
-        <v>544.3623236739001</v>
+        <v>11716.23118660615</v>
       </c>
       <c r="S36">
-        <v>0.0003062491709991674</v>
+        <v>0.005868611903267899</v>
       </c>
       <c r="T36">
-        <v>0.0003062491709991674</v>
+        <v>0.005868611903267897</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.410825</v>
+        <v>10.32394533333333</v>
       </c>
       <c r="H37">
-        <v>1.232475</v>
+        <v>30.971836</v>
       </c>
       <c r="I37">
-        <v>0.001558935737747645</v>
+        <v>0.03482854383949051</v>
       </c>
       <c r="J37">
-        <v>0.001558935737747644</v>
+        <v>0.0348285438394905</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>144.2634733333333</v>
+        <v>214.7875923333334</v>
       </c>
       <c r="N37">
-        <v>432.79042</v>
+        <v>644.3627770000001</v>
       </c>
       <c r="O37">
-        <v>0.1924927632760796</v>
+        <v>0.2870182655853519</v>
       </c>
       <c r="P37">
-        <v>0.1924927632760795</v>
+        <v>0.2870182655853519</v>
       </c>
       <c r="Q37">
-        <v>59.26704143216667</v>
+        <v>2217.455361527619</v>
       </c>
       <c r="R37">
-        <v>533.4033728895</v>
+        <v>19957.09825374857</v>
       </c>
       <c r="S37">
-        <v>0.0003000838479288778</v>
+        <v>0.009996428245673957</v>
       </c>
       <c r="T37">
-        <v>0.0003000838479288777</v>
+        <v>0.009996428245673955</v>
       </c>
     </row>
   </sheetData>
